--- a/data/spreadsheets/2025/week12.xlsx
+++ b/data/spreadsheets/2025/week12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/892d7993c2952521/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{D1080CBA-4E9B-4AA8-8010-71874299EDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{276CAFAE-A9E9-4EAF-B7F5-FBC62403F8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1712,7 +1712,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="90">
+  <fonts count="91">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2283,6 +2283,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="18">
@@ -2859,7 +2865,7 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3811,6 +3817,14 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="89" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="87" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3866,14 +3880,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="89" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5442,7 +5451,7 @@
       <pane xSplit="1" ySplit="8" topLeftCell="B440" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="O442" sqref="O442"/>
+      <selection pane="bottomRight" activeCell="A440" sqref="A440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -5459,27 +5468,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="15" customHeight="1">
-      <c r="A2" s="381" t="s">
+      <c r="A2" s="385" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="382"/>
-      <c r="C2" s="382"/>
-      <c r="D2" s="382"/>
-      <c r="E2" s="382"/>
-      <c r="F2" s="382"/>
-      <c r="G2" s="382"/>
-      <c r="H2" s="382"/>
-      <c r="I2" s="382"/>
-      <c r="J2" s="382"/>
-      <c r="K2" s="383"/>
-      <c r="L2" s="383"/>
-      <c r="M2" s="383"/>
-      <c r="N2" s="383"/>
-      <c r="O2" s="383"/>
-      <c r="P2" s="383"/>
-      <c r="Q2" s="383"/>
-      <c r="R2" s="383"/>
-      <c r="S2" s="383"/>
+      <c r="B2" s="386"/>
+      <c r="C2" s="386"/>
+      <c r="D2" s="386"/>
+      <c r="E2" s="386"/>
+      <c r="F2" s="386"/>
+      <c r="G2" s="386"/>
+      <c r="H2" s="386"/>
+      <c r="I2" s="386"/>
+      <c r="J2" s="386"/>
+      <c r="K2" s="387"/>
+      <c r="L2" s="387"/>
+      <c r="M2" s="387"/>
+      <c r="N2" s="387"/>
+      <c r="O2" s="387"/>
+      <c r="P2" s="387"/>
+      <c r="Q2" s="387"/>
+      <c r="R2" s="387"/>
+      <c r="S2" s="387"/>
       <c r="T2" s="27"/>
       <c r="U2" s="27"/>
       <c r="V2" s="27"/>
@@ -5515,27 +5524,27 @@
       <c r="Y3" s="27"/>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1">
-      <c r="A4" s="381" t="s">
+      <c r="A4" s="385" t="s">
         <v>422</v>
       </c>
-      <c r="B4" s="383"/>
-      <c r="C4" s="383"/>
-      <c r="D4" s="383"/>
-      <c r="E4" s="383"/>
-      <c r="F4" s="383"/>
-      <c r="G4" s="383"/>
-      <c r="H4" s="383"/>
-      <c r="I4" s="383"/>
-      <c r="J4" s="383"/>
-      <c r="K4" s="383"/>
-      <c r="L4" s="383"/>
-      <c r="M4" s="383"/>
-      <c r="N4" s="383"/>
-      <c r="O4" s="383"/>
-      <c r="P4" s="383"/>
-      <c r="Q4" s="383"/>
-      <c r="R4" s="383"/>
-      <c r="S4" s="383"/>
+      <c r="B4" s="387"/>
+      <c r="C4" s="387"/>
+      <c r="D4" s="387"/>
+      <c r="E4" s="387"/>
+      <c r="F4" s="387"/>
+      <c r="G4" s="387"/>
+      <c r="H4" s="387"/>
+      <c r="I4" s="387"/>
+      <c r="J4" s="387"/>
+      <c r="K4" s="387"/>
+      <c r="L4" s="387"/>
+      <c r="M4" s="387"/>
+      <c r="N4" s="387"/>
+      <c r="O4" s="387"/>
+      <c r="P4" s="387"/>
+      <c r="Q4" s="387"/>
+      <c r="R4" s="387"/>
+      <c r="S4" s="387"/>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
       <c r="V4" s="27"/>
@@ -6019,7 +6028,7 @@
       <c r="A14" s="245" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="384" t="s">
+      <c r="B14" s="388" t="s">
         <v>410</v>
       </c>
       <c r="C14" s="142">
@@ -6100,7 +6109,7 @@
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="393"/>
+      <c r="B15" s="397"/>
       <c r="C15" s="29"/>
       <c r="D15" s="34"/>
       <c r="E15" s="36"/>
@@ -12973,7 +12982,7 @@
       <c r="A139" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="B139" s="386" t="s">
+      <c r="B139" s="390" t="s">
         <v>425</v>
       </c>
       <c r="C139" s="142"/>
@@ -13037,7 +13046,7 @@
       <c r="A140" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B140" s="387"/>
+      <c r="B140" s="391"/>
       <c r="C140" s="29">
         <v>3</v>
       </c>
@@ -15203,7 +15212,7 @@
       <c r="A178" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B178" s="384" t="s">
+      <c r="B178" s="388" t="s">
         <v>64</v>
       </c>
       <c r="C178" s="33">
@@ -15272,7 +15281,7 @@
       <c r="A179" s="247" t="s">
         <v>47</v>
       </c>
-      <c r="B179" s="385"/>
+      <c r="B179" s="389"/>
       <c r="C179" s="149"/>
       <c r="D179" s="149">
         <v>2</v>
@@ -16831,11 +16840,11 @@
         <f t="shared" si="7"/>
         <v>41</v>
       </c>
-      <c r="Z206" s="391" t="s">
+      <c r="Z206" s="395" t="s">
         <v>429</v>
       </c>
-      <c r="AA206" s="392"/>
-      <c r="AB206" s="392"/>
+      <c r="AA206" s="396"/>
+      <c r="AB206" s="396"/>
     </row>
     <row r="207" spans="1:28" ht="15" customHeight="1">
       <c r="A207" s="11"/>
@@ -16863,11 +16872,11 @@
       <c r="W207" s="11"/>
       <c r="X207" s="11"/>
       <c r="Y207" s="11"/>
-      <c r="Z207" s="391" t="s">
+      <c r="Z207" s="395" t="s">
         <v>430</v>
       </c>
-      <c r="AA207" s="392"/>
-      <c r="AB207" s="392"/>
+      <c r="AA207" s="396"/>
+      <c r="AB207" s="396"/>
     </row>
     <row r="208" spans="1:28" ht="15" customHeight="1">
       <c r="A208" s="13" t="s">
@@ -17192,7 +17201,7 @@
       <c r="A215" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B215" s="384" t="s">
+      <c r="B215" s="388" t="s">
         <v>65</v>
       </c>
       <c r="C215" s="308">
@@ -17268,7 +17277,7 @@
       <c r="A216" s="247" t="s">
         <v>46</v>
       </c>
-      <c r="B216" s="385"/>
+      <c r="B216" s="389"/>
       <c r="C216" s="148"/>
       <c r="D216" s="148">
         <v>9</v>
@@ -19356,7 +19365,7 @@
       <c r="A254" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B254" s="384" t="s">
+      <c r="B254" s="388" t="s">
         <v>64</v>
       </c>
       <c r="C254" s="28">
@@ -19422,7 +19431,7 @@
       <c r="A255" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="B255" s="387"/>
+      <c r="B255" s="391"/>
       <c r="C255" s="148"/>
       <c r="D255" s="148"/>
       <c r="E255" s="150">
@@ -21111,10 +21120,10 @@
         <f t="shared" si="11"/>
         <v>107</v>
       </c>
-      <c r="Z284" s="389" t="s">
+      <c r="Z284" s="393" t="s">
         <v>433</v>
       </c>
-      <c r="AA284" s="390"/>
+      <c r="AA284" s="394"/>
       <c r="AE284" s="134"/>
       <c r="AF284" s="134"/>
     </row>
@@ -25625,7 +25634,7 @@
       <c r="A368" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="B368" s="386" t="s">
+      <c r="B368" s="390" t="s">
         <v>437</v>
       </c>
       <c r="C368" s="142"/>
@@ -25664,7 +25673,7 @@
       <c r="A369" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B369" s="388"/>
+      <c r="B369" s="392"/>
       <c r="C369" s="29">
         <v>9</v>
       </c>
@@ -27307,7 +27316,7 @@
         <f t="shared" si="17"/>
         <v>65</v>
       </c>
-      <c r="Z396" s="377" t="s">
+      <c r="Z396" s="381" t="s">
         <v>442</v>
       </c>
       <c r="AA396" s="134"/>
@@ -27343,7 +27352,7 @@
       <c r="W397" s="11"/>
       <c r="X397" s="11"/>
       <c r="Y397" s="11"/>
-      <c r="Z397" s="378"/>
+      <c r="Z397" s="382"/>
       <c r="AA397" s="134"/>
       <c r="AB397" s="134"/>
       <c r="AC397" s="134"/>
@@ -27706,7 +27715,7 @@
       <c r="A405" s="245" t="s">
         <v>51</v>
       </c>
-      <c r="B405" s="379" t="s">
+      <c r="B405" s="383" t="s">
         <v>441</v>
       </c>
       <c r="C405" s="142"/>
@@ -27751,7 +27760,7 @@
       <c r="A406" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B406" s="380"/>
+      <c r="B406" s="384"/>
       <c r="C406" s="29">
         <v>10</v>
       </c>
@@ -29753,77 +29762,78 @@
       <c r="AD441" s="22"/>
     </row>
     <row r="442" spans="1:33" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A442" s="9" t="s">
+      <c r="A442" s="245" t="s">
         <v>34</v>
       </c>
       <c r="B442" s="144"/>
-      <c r="C442" s="28">
+      <c r="C442" s="142">
         <v>9</v>
       </c>
-      <c r="D442" s="33">
+      <c r="D442" s="143">
         <v>1</v>
       </c>
-      <c r="E442" s="37">
+      <c r="E442" s="144">
         <v>13</v>
       </c>
-      <c r="F442" s="33">
+      <c r="F442" s="143">
         <v>10</v>
       </c>
-      <c r="G442" s="33">
+      <c r="G442" s="143">
         <v>10</v>
       </c>
-      <c r="H442" s="33">
+      <c r="H442" s="143">
         <v>12</v>
       </c>
-      <c r="I442" s="33">
+      <c r="I442" s="143">
         <v>13</v>
       </c>
-      <c r="J442" s="33">
+      <c r="J442" s="143">
         <v>13</v>
       </c>
       <c r="K442" s="143"/>
-      <c r="L442" s="33">
+      <c r="L442" s="143">
         <v>7</v>
       </c>
-      <c r="M442" s="33">
+      <c r="M442" s="143">
         <v>8</v>
       </c>
-      <c r="N442" s="37">
+      <c r="N442" s="144">
         <v>8</v>
       </c>
-      <c r="O442" s="143"/>
-      <c r="P442" s="396">
+      <c r="O442" s="143">
+        <v>11</v>
+      </c>
+      <c r="P442" s="400">
         <v>1</v>
       </c>
-      <c r="Q442" s="396">
+      <c r="Q442" s="400">
         <v>6</v>
       </c>
-      <c r="R442" s="135">
+      <c r="R442" s="144">
         <v>9</v>
       </c>
-      <c r="S442" s="135">
+      <c r="S442" s="144">
         <v>11</v>
       </c>
-      <c r="T442" s="90">
+      <c r="T442" s="166">
         <v>13</v>
       </c>
-      <c r="U442" s="90">
+      <c r="U442" s="166">
         <v>9</v>
       </c>
-      <c r="V442" s="237">
+      <c r="V442" s="167">
         <v>10</v>
       </c>
-      <c r="W442" s="75">
+      <c r="W442" s="145">
         <v>8</v>
       </c>
-      <c r="X442" s="75">
+      <c r="X442" s="145">
         <v>2</v>
       </c>
-      <c r="Y442" s="33">
+      <c r="Y442" s="143">
         <v>10</v>
       </c>
-      <c r="AA442" s="1"/>
-      <c r="AB442" s="220" t="s">
+      <c r="AB442" s="270" t="s">
         <v>10</v>
       </c>
     </row>
@@ -29847,8 +29857,8 @@
       <c r="M443" s="34"/>
       <c r="N443" s="36"/>
       <c r="O443" s="34"/>
-      <c r="P443" s="397"/>
-      <c r="Q443" s="397"/>
+      <c r="P443" s="378"/>
+      <c r="Q443" s="378"/>
       <c r="R443" s="136"/>
       <c r="S443" s="136"/>
       <c r="T443" s="92"/>
@@ -29882,8 +29892,8 @@
       <c r="M444" s="93"/>
       <c r="N444" s="93"/>
       <c r="O444" s="93"/>
-      <c r="P444" s="398"/>
-      <c r="Q444" s="398"/>
+      <c r="P444" s="379"/>
+      <c r="Q444" s="379"/>
       <c r="R444" s="138"/>
       <c r="S444" s="138"/>
       <c r="T444" s="137"/>
@@ -29919,8 +29929,8 @@
       <c r="M445" s="34"/>
       <c r="N445" s="36"/>
       <c r="O445" s="34"/>
-      <c r="P445" s="397"/>
-      <c r="Q445" s="397"/>
+      <c r="P445" s="378"/>
+      <c r="Q445" s="378"/>
       <c r="R445" s="136"/>
       <c r="S445" s="136"/>
       <c r="T445" s="74"/>
@@ -29962,7 +29972,9 @@
       <c r="J446" s="34">
         <v>14</v>
       </c>
-      <c r="K446" s="149"/>
+      <c r="K446" s="34">
+        <v>14</v>
+      </c>
       <c r="L446" s="34">
         <v>14</v>
       </c>
@@ -29972,11 +29984,13 @@
       <c r="N446" s="36">
         <v>9</v>
       </c>
-      <c r="O446" s="149"/>
-      <c r="P446" s="397">
+      <c r="O446" s="34">
+        <v>8</v>
+      </c>
+      <c r="P446" s="378">
         <v>10</v>
       </c>
-      <c r="Q446" s="397">
+      <c r="Q446" s="378">
         <v>14</v>
       </c>
       <c r="R446" s="136">
@@ -30028,13 +30042,17 @@
       <c r="J447" s="33">
         <v>1</v>
       </c>
-      <c r="K447" s="33"/>
+      <c r="K447" s="33">
+        <v>3</v>
+      </c>
       <c r="L447" s="33"/>
       <c r="M447" s="33"/>
       <c r="N447" s="37"/>
-      <c r="O447" s="33"/>
-      <c r="P447" s="396"/>
-      <c r="Q447" s="396">
+      <c r="O447" s="33">
+        <v>3</v>
+      </c>
+      <c r="P447" s="377"/>
+      <c r="Q447" s="377">
         <v>5</v>
       </c>
       <c r="R447" s="135"/>
@@ -30076,7 +30094,7 @@
       </c>
       <c r="I448" s="34"/>
       <c r="J448" s="34"/>
-      <c r="K448" s="149"/>
+      <c r="K448" s="34"/>
       <c r="L448" s="34">
         <v>6</v>
       </c>
@@ -30086,11 +30104,11 @@
       <c r="N448" s="36">
         <v>2</v>
       </c>
-      <c r="O448" s="149"/>
-      <c r="P448" s="397">
+      <c r="O448" s="34"/>
+      <c r="P448" s="378">
         <v>8</v>
       </c>
-      <c r="Q448" s="397"/>
+      <c r="Q448" s="378"/>
       <c r="R448" s="136">
         <v>6</v>
       </c>
@@ -30149,7 +30167,9 @@
       <c r="J449" s="33">
         <v>12</v>
       </c>
-      <c r="K449" s="33"/>
+      <c r="K449" s="33">
+        <v>2</v>
+      </c>
       <c r="L449" s="33">
         <v>11</v>
       </c>
@@ -30160,10 +30180,10 @@
         <v>11</v>
       </c>
       <c r="O449" s="33"/>
-      <c r="P449" s="396">
+      <c r="P449" s="377">
         <v>11</v>
       </c>
-      <c r="Q449" s="396">
+      <c r="Q449" s="377">
         <v>13</v>
       </c>
       <c r="R449" s="135">
@@ -30213,13 +30233,15 @@
       <c r="H450" s="34"/>
       <c r="I450" s="34"/>
       <c r="J450" s="34"/>
-      <c r="K450" s="149"/>
+      <c r="K450" s="34"/>
       <c r="L450" s="34"/>
       <c r="M450" s="34"/>
       <c r="N450" s="36"/>
-      <c r="O450" s="149"/>
-      <c r="P450" s="397"/>
-      <c r="Q450" s="397"/>
+      <c r="O450" s="34">
+        <v>2</v>
+      </c>
+      <c r="P450" s="378"/>
+      <c r="Q450" s="378"/>
       <c r="R450" s="136"/>
       <c r="S450" s="136"/>
       <c r="T450" s="92"/>
@@ -30256,8 +30278,8 @@
       <c r="M451" s="33"/>
       <c r="N451" s="37"/>
       <c r="O451" s="33"/>
-      <c r="P451" s="396"/>
-      <c r="Q451" s="396"/>
+      <c r="P451" s="377"/>
+      <c r="Q451" s="377"/>
       <c r="R451" s="135"/>
       <c r="S451" s="135"/>
       <c r="T451" s="120"/>
@@ -30301,7 +30323,9 @@
       <c r="J452" s="34">
         <v>11</v>
       </c>
-      <c r="K452" s="149"/>
+      <c r="K452" s="34">
+        <v>13</v>
+      </c>
       <c r="L452" s="34">
         <v>12</v>
       </c>
@@ -30311,11 +30335,13 @@
       <c r="N452" s="36">
         <v>13</v>
       </c>
-      <c r="O452" s="149"/>
-      <c r="P452" s="397">
+      <c r="O452" s="34">
         <v>14</v>
       </c>
-      <c r="Q452" s="397">
+      <c r="P452" s="378">
+        <v>14</v>
+      </c>
+      <c r="Q452" s="378">
         <v>12</v>
       </c>
       <c r="R452" s="136">
@@ -30369,13 +30395,13 @@
       <c r="J453" s="33">
         <v>2</v>
       </c>
-      <c r="K453" s="143"/>
+      <c r="K453" s="33"/>
       <c r="L453" s="33"/>
       <c r="M453" s="33"/>
       <c r="N453" s="37"/>
-      <c r="O453" s="143"/>
-      <c r="P453" s="396"/>
-      <c r="Q453" s="396"/>
+      <c r="O453" s="33"/>
+      <c r="P453" s="377"/>
+      <c r="Q453" s="377"/>
       <c r="R453" s="135"/>
       <c r="S453" s="135"/>
       <c r="T453" s="92"/>
@@ -30415,7 +30441,9 @@
         <v>9</v>
       </c>
       <c r="J454" s="34"/>
-      <c r="K454" s="34"/>
+      <c r="K454" s="34">
+        <v>12</v>
+      </c>
       <c r="L454" s="34">
         <v>9</v>
       </c>
@@ -30425,11 +30453,13 @@
       <c r="N454" s="36">
         <v>10</v>
       </c>
-      <c r="O454" s="34"/>
-      <c r="P454" s="397">
+      <c r="O454" s="34">
+        <v>10</v>
+      </c>
+      <c r="P454" s="378">
         <v>9</v>
       </c>
-      <c r="Q454" s="397">
+      <c r="Q454" s="378">
         <v>9</v>
       </c>
       <c r="R454" s="136">
@@ -30490,10 +30520,10 @@
       <c r="M455" s="33"/>
       <c r="N455" s="37"/>
       <c r="O455" s="33"/>
-      <c r="P455" s="396">
+      <c r="P455" s="377">
         <v>6</v>
       </c>
-      <c r="Q455" s="396">
+      <c r="Q455" s="377">
         <v>4</v>
       </c>
       <c r="R455" s="135">
@@ -30539,7 +30569,9 @@
       <c r="J456" s="34">
         <v>10</v>
       </c>
-      <c r="K456" s="149"/>
+      <c r="K456" s="34">
+        <v>4</v>
+      </c>
       <c r="L456" s="34">
         <v>5</v>
       </c>
@@ -30549,9 +30581,11 @@
       <c r="N456" s="36">
         <v>5</v>
       </c>
-      <c r="O456" s="149"/>
-      <c r="P456" s="397"/>
-      <c r="Q456" s="397"/>
+      <c r="O456" s="34">
+        <v>6</v>
+      </c>
+      <c r="P456" s="378"/>
+      <c r="Q456" s="378"/>
       <c r="R456" s="136"/>
       <c r="S456" s="136">
         <v>4</v>
@@ -30605,7 +30639,9 @@
       <c r="J457" s="33">
         <v>9</v>
       </c>
-      <c r="K457" s="33"/>
+      <c r="K457" s="33">
+        <v>11</v>
+      </c>
       <c r="L457" s="33">
         <v>13</v>
       </c>
@@ -30615,11 +30651,13 @@
       <c r="N457" s="37">
         <v>14</v>
       </c>
-      <c r="O457" s="33"/>
-      <c r="P457" s="396">
+      <c r="O457" s="33">
         <v>13</v>
       </c>
-      <c r="Q457" s="396">
+      <c r="P457" s="377">
+        <v>13</v>
+      </c>
+      <c r="Q457" s="377">
         <v>11</v>
       </c>
       <c r="R457" s="135">
@@ -30668,13 +30706,13 @@
       <c r="H458" s="34"/>
       <c r="I458" s="34"/>
       <c r="J458" s="34"/>
-      <c r="K458" s="149"/>
+      <c r="K458" s="34"/>
       <c r="L458" s="34"/>
       <c r="M458" s="34"/>
       <c r="N458" s="36"/>
-      <c r="O458" s="149"/>
-      <c r="P458" s="397"/>
-      <c r="Q458" s="397"/>
+      <c r="O458" s="34"/>
+      <c r="P458" s="378"/>
+      <c r="Q458" s="378"/>
       <c r="R458" s="136"/>
       <c r="S458" s="136"/>
       <c r="T458" s="92"/>
@@ -30714,7 +30752,9 @@
         <v>3</v>
       </c>
       <c r="J459" s="33"/>
-      <c r="K459" s="33"/>
+      <c r="K459" s="33">
+        <v>5</v>
+      </c>
       <c r="L459" s="33"/>
       <c r="M459" s="33">
         <v>7</v>
@@ -30723,10 +30763,10 @@
         <v>1</v>
       </c>
       <c r="O459" s="33"/>
-      <c r="P459" s="396">
+      <c r="P459" s="377">
         <v>5</v>
       </c>
-      <c r="Q459" s="396">
+      <c r="Q459" s="377">
         <v>8</v>
       </c>
       <c r="R459" s="135">
@@ -30778,15 +30818,17 @@
       <c r="J460" s="34">
         <v>7</v>
       </c>
-      <c r="K460" s="149"/>
+      <c r="K460" s="34"/>
       <c r="L460" s="34">
         <v>2</v>
       </c>
       <c r="M460" s="34"/>
       <c r="N460" s="36"/>
-      <c r="O460" s="149"/>
-      <c r="P460" s="397"/>
-      <c r="Q460" s="397"/>
+      <c r="O460" s="34">
+        <v>4</v>
+      </c>
+      <c r="P460" s="378"/>
+      <c r="Q460" s="378"/>
       <c r="R460" s="136"/>
       <c r="S460" s="136"/>
       <c r="T460" s="90"/>
@@ -30819,15 +30861,17 @@
       <c r="H461" s="33"/>
       <c r="I461" s="33"/>
       <c r="J461" s="33"/>
-      <c r="K461" s="143"/>
+      <c r="K461" s="33">
+        <v>6</v>
+      </c>
       <c r="L461" s="33">
         <v>1</v>
       </c>
       <c r="M461" s="33"/>
       <c r="N461" s="37"/>
-      <c r="O461" s="143"/>
-      <c r="P461" s="396"/>
-      <c r="Q461" s="396">
+      <c r="O461" s="33"/>
+      <c r="P461" s="377"/>
+      <c r="Q461" s="377">
         <v>3</v>
       </c>
       <c r="R461" s="135">
@@ -30882,11 +30926,13 @@
       <c r="N462" s="36">
         <v>6</v>
       </c>
-      <c r="O462" s="34"/>
-      <c r="P462" s="397">
+      <c r="O462" s="34">
+        <v>7</v>
+      </c>
+      <c r="P462" s="378">
         <v>4</v>
       </c>
-      <c r="Q462" s="397"/>
+      <c r="Q462" s="378"/>
       <c r="R462" s="136"/>
       <c r="S462" s="136">
         <v>2</v>
@@ -30934,7 +30980,7 @@
       <c r="J463" s="33">
         <v>8</v>
       </c>
-      <c r="K463" s="143"/>
+      <c r="K463" s="33"/>
       <c r="L463" s="33">
         <v>4</v>
       </c>
@@ -30944,11 +30990,11 @@
       <c r="N463" s="37">
         <v>4</v>
       </c>
-      <c r="O463" s="143"/>
-      <c r="P463" s="396">
+      <c r="O463" s="33"/>
+      <c r="P463" s="377">
         <v>3</v>
       </c>
-      <c r="Q463" s="396"/>
+      <c r="Q463" s="377"/>
       <c r="R463" s="135"/>
       <c r="S463" s="135"/>
       <c r="T463" s="92">
@@ -30992,13 +31038,17 @@
         <v>1</v>
       </c>
       <c r="J464" s="34"/>
-      <c r="K464" s="34"/>
+      <c r="K464" s="34">
+        <v>10</v>
+      </c>
       <c r="L464" s="34"/>
       <c r="M464" s="34"/>
       <c r="N464" s="36"/>
-      <c r="O464" s="34"/>
-      <c r="P464" s="397"/>
-      <c r="Q464" s="397">
+      <c r="O464" s="34">
+        <v>5</v>
+      </c>
+      <c r="P464" s="378"/>
+      <c r="Q464" s="378">
         <v>2</v>
       </c>
       <c r="R464" s="136">
@@ -31047,10 +31097,10 @@
       </c>
       <c r="N465" s="37"/>
       <c r="O465" s="33"/>
-      <c r="P465" s="396">
+      <c r="P465" s="377">
         <v>7</v>
       </c>
-      <c r="Q465" s="396"/>
+      <c r="Q465" s="377"/>
       <c r="R465" s="135">
         <v>3</v>
       </c>
@@ -31094,15 +31144,19 @@
       <c r="J466" s="34">
         <v>3</v>
       </c>
-      <c r="K466" s="149"/>
+      <c r="K466" s="34">
+        <v>7</v>
+      </c>
       <c r="L466" s="34"/>
       <c r="M466" s="34"/>
       <c r="N466" s="36">
         <v>3</v>
       </c>
-      <c r="O466" s="149"/>
-      <c r="P466" s="397"/>
-      <c r="Q466" s="397">
+      <c r="O466" s="34">
+        <v>1</v>
+      </c>
+      <c r="P466" s="378"/>
+      <c r="Q466" s="378">
         <v>1</v>
       </c>
       <c r="R466" s="136"/>
@@ -31149,10 +31203,10 @@
       <c r="M467" s="33"/>
       <c r="N467" s="33"/>
       <c r="O467" s="33"/>
-      <c r="P467" s="396">
+      <c r="P467" s="377">
         <v>2</v>
       </c>
-      <c r="Q467" s="396"/>
+      <c r="Q467" s="377"/>
       <c r="R467" s="135"/>
       <c r="S467" s="135"/>
       <c r="T467" s="75"/>
@@ -31194,7 +31248,9 @@
       <c r="J468" s="34">
         <v>6</v>
       </c>
-      <c r="K468" s="149"/>
+      <c r="K468" s="34">
+        <v>8</v>
+      </c>
       <c r="L468" s="34">
         <v>8</v>
       </c>
@@ -31204,9 +31260,11 @@
       <c r="N468" s="34">
         <v>12</v>
       </c>
-      <c r="O468" s="149"/>
-      <c r="P468" s="397"/>
-      <c r="Q468" s="397">
+      <c r="O468" s="34">
+        <v>9</v>
+      </c>
+      <c r="P468" s="378"/>
+      <c r="Q468" s="378">
         <v>7</v>
       </c>
       <c r="R468" s="136">
@@ -31258,8 +31316,8 @@
       <c r="M469" s="57"/>
       <c r="N469" s="63"/>
       <c r="O469" s="57"/>
-      <c r="P469" s="399"/>
-      <c r="Q469" s="399"/>
+      <c r="P469" s="380"/>
+      <c r="Q469" s="380"/>
       <c r="R469" s="137"/>
       <c r="S469" s="137"/>
       <c r="T469" s="137"/>
@@ -31296,8 +31354,8 @@
       <c r="M470" s="33"/>
       <c r="N470" s="37"/>
       <c r="O470" s="33"/>
-      <c r="P470" s="396"/>
-      <c r="Q470" s="396"/>
+      <c r="P470" s="377"/>
+      <c r="Q470" s="377"/>
       <c r="R470" s="135"/>
       <c r="S470" s="135"/>
       <c r="T470" s="75"/>
@@ -31337,7 +31395,9 @@
       <c r="J471" s="34">
         <v>5</v>
       </c>
-      <c r="K471" s="149"/>
+      <c r="K471" s="34">
+        <v>9</v>
+      </c>
       <c r="L471" s="34">
         <v>10</v>
       </c>
@@ -31347,11 +31407,13 @@
       <c r="N471" s="36">
         <v>7</v>
       </c>
-      <c r="O471" s="149"/>
-      <c r="P471" s="397">
+      <c r="O471" s="34">
         <v>12</v>
       </c>
-      <c r="Q471" s="397">
+      <c r="P471" s="378">
+        <v>12</v>
+      </c>
+      <c r="Q471" s="378">
         <v>10</v>
       </c>
       <c r="R471" s="136">
@@ -31422,7 +31484,7 @@
       </c>
       <c r="B473" s="11"/>
       <c r="C473" s="11">
-        <f t="shared" ref="C473:Y473" si="21">SUM(C442:C471)</f>
+        <f t="shared" ref="C473:X473" si="21">SUM(C442:C471)</f>
         <v>105</v>
       </c>
       <c r="D473" s="11">
@@ -31455,7 +31517,7 @@
       </c>
       <c r="K473" s="11">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="L473" s="11">
         <f t="shared" si="21"/>
@@ -31471,7 +31533,7 @@
       </c>
       <c r="O473" s="11">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="P473" s="11">
         <f t="shared" si="21"/>
@@ -39771,27 +39833,27 @@
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1"/>
     <row r="2" spans="1:31" ht="15" customHeight="1">
-      <c r="A2" s="381"/>
-      <c r="B2" s="382"/>
-      <c r="C2" s="382"/>
-      <c r="D2" s="382"/>
-      <c r="E2" s="382"/>
-      <c r="F2" s="382"/>
-      <c r="G2" s="382"/>
-      <c r="H2" s="382"/>
-      <c r="I2" s="382"/>
-      <c r="J2" s="382"/>
-      <c r="K2" s="382"/>
-      <c r="L2" s="382"/>
-      <c r="M2" s="383"/>
-      <c r="N2" s="383"/>
-      <c r="O2" s="383"/>
-      <c r="P2" s="383"/>
-      <c r="Q2" s="383"/>
-      <c r="R2" s="383"/>
-      <c r="S2" s="383"/>
-      <c r="T2" s="383"/>
-      <c r="U2" s="383"/>
+      <c r="A2" s="385"/>
+      <c r="B2" s="386"/>
+      <c r="C2" s="386"/>
+      <c r="D2" s="386"/>
+      <c r="E2" s="386"/>
+      <c r="F2" s="386"/>
+      <c r="G2" s="386"/>
+      <c r="H2" s="386"/>
+      <c r="I2" s="386"/>
+      <c r="J2" s="386"/>
+      <c r="K2" s="386"/>
+      <c r="L2" s="386"/>
+      <c r="M2" s="387"/>
+      <c r="N2" s="387"/>
+      <c r="O2" s="387"/>
+      <c r="P2" s="387"/>
+      <c r="Q2" s="387"/>
+      <c r="R2" s="387"/>
+      <c r="S2" s="387"/>
+      <c r="T2" s="387"/>
+      <c r="U2" s="387"/>
       <c r="V2" s="27"/>
       <c r="W2" s="27"/>
       <c r="X2" s="27"/>
@@ -39827,27 +39889,27 @@
       <c r="Z3" s="27"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1">
-      <c r="A4" s="381"/>
-      <c r="B4" s="383"/>
-      <c r="C4" s="383"/>
-      <c r="D4" s="383"/>
-      <c r="E4" s="383"/>
-      <c r="F4" s="383"/>
-      <c r="G4" s="383"/>
-      <c r="H4" s="383"/>
-      <c r="I4" s="383"/>
-      <c r="J4" s="383"/>
-      <c r="K4" s="383"/>
-      <c r="L4" s="383"/>
-      <c r="M4" s="383"/>
-      <c r="N4" s="383"/>
-      <c r="O4" s="383"/>
-      <c r="P4" s="383"/>
-      <c r="Q4" s="383"/>
-      <c r="R4" s="383"/>
-      <c r="S4" s="383"/>
-      <c r="T4" s="383"/>
-      <c r="U4" s="383"/>
+      <c r="A4" s="385"/>
+      <c r="B4" s="387"/>
+      <c r="C4" s="387"/>
+      <c r="D4" s="387"/>
+      <c r="E4" s="387"/>
+      <c r="F4" s="387"/>
+      <c r="G4" s="387"/>
+      <c r="H4" s="387"/>
+      <c r="I4" s="387"/>
+      <c r="J4" s="387"/>
+      <c r="K4" s="387"/>
+      <c r="L4" s="387"/>
+      <c r="M4" s="387"/>
+      <c r="N4" s="387"/>
+      <c r="O4" s="387"/>
+      <c r="P4" s="387"/>
+      <c r="Q4" s="387"/>
+      <c r="R4" s="387"/>
+      <c r="S4" s="387"/>
+      <c r="T4" s="387"/>
+      <c r="U4" s="387"/>
       <c r="V4" s="27"/>
       <c r="W4" s="27"/>
       <c r="X4" s="27"/>
@@ -40156,7 +40218,7 @@
     </row>
     <row r="15" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="384"/>
+      <c r="B15" s="388"/>
       <c r="C15" s="28"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -40189,7 +40251,7 @@
     </row>
     <row r="16" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="393"/>
+      <c r="B16" s="397"/>
       <c r="C16" s="29"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -44047,7 +44109,7 @@
     </row>
     <row r="140" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="9"/>
-      <c r="B140" s="384"/>
+      <c r="B140" s="388"/>
       <c r="C140" s="28"/>
       <c r="D140" s="33"/>
       <c r="E140" s="37"/>
@@ -44077,7 +44139,7 @@
     </row>
     <row r="141" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A141" s="7"/>
-      <c r="B141" s="385"/>
+      <c r="B141" s="389"/>
       <c r="C141" s="29"/>
       <c r="D141" s="34"/>
       <c r="E141" s="36"/>
@@ -45325,7 +45387,7 @@
     </row>
     <row r="181" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A181" s="9"/>
-      <c r="B181" s="384"/>
+      <c r="B181" s="388"/>
       <c r="C181" s="33"/>
       <c r="D181" s="33"/>
       <c r="E181" s="37"/>
@@ -45355,7 +45417,7 @@
     </row>
     <row r="182" spans="1:31" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A182" s="7"/>
-      <c r="B182" s="385"/>
+      <c r="B182" s="389"/>
       <c r="C182" s="34"/>
       <c r="D182" s="34"/>
       <c r="E182" s="36"/>
@@ -46438,7 +46500,7 @@
     </row>
     <row r="218" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A218" s="9"/>
-      <c r="B218" s="384"/>
+      <c r="B218" s="388"/>
       <c r="C218" s="28"/>
       <c r="D218" s="33"/>
       <c r="E218" s="37"/>
@@ -46468,7 +46530,7 @@
     </row>
     <row r="219" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A219" s="7"/>
-      <c r="B219" s="385"/>
+      <c r="B219" s="389"/>
       <c r="C219" s="29"/>
       <c r="D219" s="34"/>
       <c r="E219" s="36"/>
@@ -47608,7 +47670,7 @@
     </row>
     <row r="255" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A255" s="9"/>
-      <c r="B255" s="384"/>
+      <c r="B255" s="388"/>
       <c r="C255" s="28"/>
       <c r="D255" s="33"/>
       <c r="E255" s="37"/>
@@ -47638,7 +47700,7 @@
     </row>
     <row r="256" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A256" s="7"/>
-      <c r="B256" s="387"/>
+      <c r="B256" s="391"/>
       <c r="C256" s="29"/>
       <c r="D256" s="34"/>
       <c r="E256" s="36"/>
@@ -51391,7 +51453,7 @@
     </row>
     <row r="377" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A377" s="9"/>
-      <c r="B377" s="384"/>
+      <c r="B377" s="388"/>
       <c r="C377" s="28"/>
       <c r="D377" s="33"/>
       <c r="E377" s="37"/>
@@ -51425,7 +51487,7 @@
     </row>
     <row r="378" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A378" s="7"/>
-      <c r="B378" s="385"/>
+      <c r="B378" s="389"/>
       <c r="C378" s="29"/>
       <c r="D378" s="34"/>
       <c r="E378" s="36"/>
@@ -61022,7 +61084,7 @@
     </row>
     <row r="700" spans="1:29" ht="15" customHeight="1">
       <c r="A700" s="9"/>
-      <c r="B700" s="394"/>
+      <c r="B700" s="398"/>
       <c r="C700" s="28"/>
       <c r="D700" s="33"/>
       <c r="E700" s="37"/>
@@ -61053,7 +61115,7 @@
     </row>
     <row r="701" spans="1:29" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A701" s="7"/>
-      <c r="B701" s="395"/>
+      <c r="B701" s="399"/>
       <c r="C701" s="29"/>
       <c r="D701" s="34"/>
       <c r="E701" s="36"/>
@@ -61503,7 +61565,7 @@
     </row>
     <row r="716" spans="1:29" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A716" s="6"/>
-      <c r="B716" s="394"/>
+      <c r="B716" s="398"/>
       <c r="C716" s="28"/>
       <c r="D716" s="33"/>
       <c r="E716" s="37"/>
@@ -61531,7 +61593,7 @@
     </row>
     <row r="717" spans="1:29" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A717" s="114"/>
-      <c r="B717" s="395"/>
+      <c r="B717" s="399"/>
       <c r="C717" s="29"/>
       <c r="D717" s="34"/>
       <c r="E717" s="36"/>
